--- a/target/test-classes/testdata/pet_data.xlsx
+++ b/target/test-classes/testdata/pet_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anagha\eclipse-workspace\PetClinicAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14790413-9649-4D19-AEDB-FEFFEF5D9C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D530A0F-0074-4B4D-BBCF-989B54022E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,6 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,11 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +427,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -432,17 +435,17 @@
     <col min="2" max="2" width="19.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -451,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>43963</v>
+        <v>44170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -604,7 +607,7 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>45668</v>
       </c>
       <c r="C13" s="1" t="s">
